--- a/capiq_data/in_process_data/IQ6569181.xlsx
+++ b/capiq_data/in_process_data/IQ6569181.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6B9D6-14CB-4624-A919-DB39589A9238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8B704-8CB7-47A5-A84D-772E211A831A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e03b242a-f0a8-4c71-9cf1-7f2ff5617dc9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"02be3eb3-e819-4a9d-9318-ec13380a1e6d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$61</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$61</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$61</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$61</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$61</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$61</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$61</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$61</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$61</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$61</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$61</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$61</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$61</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$61</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$61</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$61</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$61</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$61</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$61</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$61</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$61</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$61</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$61</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$61</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$61</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$61</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,63 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +790,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38807</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1752</v>
+        <v>1576</v>
       </c>
       <c r="D2">
-        <v>7037</v>
+        <v>5228</v>
       </c>
       <c r="E2">
-        <v>3009</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4536</v>
+        <v>3198.5</v>
       </c>
       <c r="G2">
-        <v>13756</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35050</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13370</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1747</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +829,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12804</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>29929</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>16502</v>
+        <v>4909</v>
       </c>
       <c r="Q2">
-        <v>-1804</v>
+        <v>317.5</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38807</v>
       </c>
       <c r="S2">
-        <v>78300</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5121</v>
+        <v>10307</v>
       </c>
       <c r="U2">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1581</v>
+        <v>1654</v>
       </c>
       <c r="W2">
-        <v>-1169</v>
+        <v>-755</v>
       </c>
       <c r="X2">
-        <v>-3071</v>
+        <v>-1178.5</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +868,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1752</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38898</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1919</v>
+        <v>1576</v>
       </c>
       <c r="D3">
-        <v>6791</v>
+        <v>5346</v>
       </c>
       <c r="E3">
-        <v>2991</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4496</v>
+        <v>3276</v>
       </c>
       <c r="G3">
-        <v>13393</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>35554</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11885</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14343</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>30042</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16852</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-381</v>
+        <v>317.5</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38898</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2395</v>
+        <v>1654</v>
       </c>
       <c r="W3">
-        <v>-1159</v>
+        <v>-755</v>
       </c>
       <c r="X3">
-        <v>-2659</v>
+        <v>-1178.5</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +951,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1919</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38990</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2409</v>
+        <v>1382</v>
       </c>
       <c r="D4">
-        <v>8273</v>
+        <v>5412</v>
       </c>
       <c r="E4">
-        <v>3443</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5429</v>
+        <v>3311</v>
       </c>
       <c r="G4">
-        <v>14333</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>36794</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13037</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +995,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14763</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>31614</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>16921</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>856</v>
+        <v>-160</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38990</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>4120</v>
+        <v>1960</v>
       </c>
       <c r="W4">
-        <v>-1149</v>
+        <v>-420</v>
       </c>
       <c r="X4">
-        <v>-3039</v>
+        <v>-2021</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1034,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>2409</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39082</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2377</v>
+        <v>1612</v>
       </c>
       <c r="D5">
-        <v>8362</v>
+        <v>4926</v>
       </c>
       <c r="E5">
-        <v>3242</v>
+        <v>2160</v>
       </c>
       <c r="F5">
-        <v>5515</v>
+        <v>2933</v>
       </c>
       <c r="G5">
-        <v>15090</v>
+        <v>11925</v>
       </c>
       <c r="H5">
-        <v>36220</v>
+        <v>26120</v>
       </c>
       <c r="I5">
-        <v>1121</v>
+        <v>672</v>
       </c>
       <c r="J5">
-        <v>12870</v>
+        <v>2222</v>
       </c>
       <c r="K5">
-        <v>2563</v>
+        <v>419</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1078,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16050</v>
+        <v>6989</v>
       </c>
       <c r="O5">
-        <v>32566</v>
+        <v>11853</v>
       </c>
       <c r="P5">
-        <v>17759</v>
+        <v>2786</v>
       </c>
       <c r="Q5">
-        <v>1213</v>
+        <v>-8</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39082</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>76738</v>
       </c>
       <c r="T5">
-        <v>3654</v>
+        <v>14267</v>
       </c>
       <c r="U5">
-        <v>3391</v>
+        <v>1676</v>
       </c>
       <c r="V5">
-        <v>3053</v>
+        <v>968</v>
       </c>
       <c r="W5">
-        <v>-1133</v>
+        <v>-850</v>
       </c>
       <c r="X5">
-        <v>-1356</v>
+        <v>-1039</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1117,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>2377</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39172</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1886</v>
+        <v>1445</v>
       </c>
       <c r="D6">
-        <v>7671</v>
+        <v>5549</v>
       </c>
       <c r="E6">
-        <v>3201</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4979</v>
+        <v>3428</v>
       </c>
       <c r="G6">
-        <v>14859</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>35488</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14828</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1511</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1161,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14794</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>33725</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>18545</v>
+        <v>2786</v>
       </c>
       <c r="Q6">
-        <v>-841</v>
+        <v>-305</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39172</v>
       </c>
       <c r="S6">
-        <v>78100</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1763</v>
+        <v>14267</v>
       </c>
       <c r="U6">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="W6">
-        <v>-1347</v>
+        <v>-530</v>
       </c>
       <c r="X6">
-        <v>-1284</v>
+        <v>-734</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1200,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1886</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39263</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>2161</v>
+        <v>1483</v>
       </c>
       <c r="D7">
-        <v>7448</v>
+        <v>5835</v>
       </c>
       <c r="E7">
-        <v>3472</v>
+        <v>2465</v>
       </c>
       <c r="F7">
-        <v>5006</v>
+        <v>3591</v>
       </c>
       <c r="G7">
-        <v>15338</v>
+        <v>14280</v>
       </c>
       <c r="H7">
-        <v>36399</v>
+        <v>29428</v>
       </c>
       <c r="I7">
-        <v>1044</v>
+        <v>725</v>
       </c>
       <c r="J7">
-        <v>15346</v>
+        <v>460</v>
       </c>
       <c r="K7">
-        <v>4085</v>
+        <v>483</v>
       </c>
       <c r="L7">
-        <v>-742</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-1667</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15283</v>
+        <v>9508</v>
       </c>
       <c r="O7">
-        <v>34784</v>
+        <v>12562</v>
       </c>
       <c r="P7">
-        <v>20841</v>
+        <v>3092</v>
       </c>
       <c r="Q7">
-        <v>1026</v>
+        <v>1937</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39263</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>76738</v>
       </c>
       <c r="T7">
-        <v>1615</v>
+        <v>16866</v>
       </c>
       <c r="U7">
-        <v>3576</v>
+        <v>3308</v>
       </c>
       <c r="V7">
-        <v>1898</v>
+        <v>3207</v>
       </c>
       <c r="W7">
-        <v>-1338</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-783</v>
+        <v>-1055</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1283,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>2161</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39355</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>2317</v>
+        <v>1725</v>
       </c>
       <c r="D8">
-        <v>8120</v>
+        <v>5916</v>
       </c>
       <c r="E8">
-        <v>3553</v>
+        <v>2466</v>
       </c>
       <c r="F8">
-        <v>5454</v>
+        <v>3687</v>
       </c>
       <c r="G8">
-        <v>15561</v>
+        <v>14945</v>
       </c>
       <c r="H8">
-        <v>35798</v>
+        <v>30170</v>
       </c>
       <c r="I8">
-        <v>1019</v>
+        <v>800</v>
       </c>
       <c r="J8">
-        <v>14824</v>
+        <v>655</v>
       </c>
       <c r="K8">
-        <v>2694</v>
+        <v>512</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1327,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16830</v>
+        <v>9592</v>
       </c>
       <c r="O8">
-        <v>35652</v>
+        <v>12894</v>
       </c>
       <c r="P8">
-        <v>20802</v>
+        <v>3378</v>
       </c>
       <c r="Q8">
-        <v>270</v>
+        <v>-120</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39355</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>146</v>
+        <v>17276</v>
       </c>
       <c r="U8">
-        <v>3846</v>
+        <v>3188</v>
       </c>
       <c r="V8">
-        <v>3480</v>
+        <v>1100</v>
       </c>
       <c r="W8">
-        <v>-1325</v>
+        <v>-2150</v>
       </c>
       <c r="X8">
-        <v>-2705</v>
+        <v>-1003</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1366,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>2317</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39447</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>2227</v>
+        <v>1385</v>
       </c>
       <c r="D9">
-        <v>7920</v>
+        <v>5510</v>
       </c>
       <c r="E9">
-        <v>3562</v>
+        <v>3099</v>
       </c>
       <c r="F9">
-        <v>5336</v>
+        <v>3393</v>
       </c>
       <c r="G9">
-        <v>17600</v>
+        <v>14786</v>
       </c>
       <c r="H9">
-        <v>38309</v>
+        <v>31777</v>
       </c>
       <c r="I9">
-        <v>1127</v>
+        <v>819</v>
       </c>
       <c r="J9">
-        <v>17520</v>
+        <v>5578</v>
       </c>
       <c r="K9">
-        <v>2141</v>
+        <v>400</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,203 +1410,203 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16726</v>
+        <v>8091</v>
       </c>
       <c r="O9">
-        <v>38193</v>
+        <v>16182</v>
       </c>
       <c r="P9">
-        <v>22436</v>
+        <v>6069</v>
       </c>
       <c r="Q9">
-        <v>971</v>
+        <v>-1796</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39447</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>75500</v>
       </c>
       <c r="T9">
-        <v>116</v>
+        <v>15595</v>
       </c>
       <c r="U9">
-        <v>4817</v>
+        <v>1501</v>
       </c>
       <c r="V9">
-        <v>2393</v>
+        <v>232</v>
       </c>
       <c r="W9">
-        <v>-1310</v>
+        <v>-980</v>
       </c>
       <c r="X9">
-        <v>-1400</v>
+        <v>-802</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2227</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39538</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2095</v>
+        <v>1673</v>
       </c>
       <c r="D10">
-        <v>7889</v>
+        <v>5921</v>
       </c>
       <c r="E10">
-        <v>3589</v>
+        <v>2786</v>
       </c>
       <c r="F10">
-        <v>5208</v>
+        <v>3740</v>
       </c>
       <c r="G10">
-        <v>16590</v>
+        <v>13633</v>
       </c>
       <c r="H10">
-        <v>37670</v>
+        <v>31532</v>
       </c>
       <c r="I10">
-        <v>1103</v>
+        <v>733</v>
       </c>
       <c r="J10">
-        <v>17639</v>
+        <v>6643</v>
       </c>
       <c r="K10">
-        <v>2419</v>
+        <v>793</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-930</v>
       </c>
       <c r="N10">
-        <v>17016</v>
+        <v>7393</v>
       </c>
       <c r="O10">
-        <v>39523</v>
+        <v>16754</v>
       </c>
       <c r="P10">
-        <v>22839</v>
+        <v>7540</v>
       </c>
       <c r="Q10">
-        <v>-1834</v>
+        <v>-270</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39538</v>
       </c>
       <c r="S10">
-        <v>87100</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-1853</v>
+        <v>14778</v>
       </c>
       <c r="U10">
-        <v>2983</v>
+        <v>1231</v>
       </c>
       <c r="V10">
-        <v>1650</v>
+        <v>1583</v>
       </c>
       <c r="W10">
-        <v>-1431</v>
+        <v>-2119</v>
       </c>
       <c r="X10">
-        <v>-3212</v>
+        <v>-1410</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>2095</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39629</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>2125</v>
+        <v>1692</v>
       </c>
       <c r="D11">
-        <v>7584</v>
+        <v>6709</v>
       </c>
       <c r="E11">
-        <v>3591</v>
+        <v>3093</v>
       </c>
       <c r="F11">
-        <v>5095</v>
+        <v>4247</v>
       </c>
       <c r="G11">
-        <v>16661</v>
+        <v>15750</v>
       </c>
       <c r="H11">
-        <v>37418</v>
+        <v>34318</v>
       </c>
       <c r="I11">
-        <v>967</v>
+        <v>1167</v>
       </c>
       <c r="J11">
-        <v>20796</v>
+        <v>6271</v>
       </c>
       <c r="K11">
-        <v>1539</v>
+        <v>1944</v>
       </c>
       <c r="L11">
-        <v>-972</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-739</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14509</v>
+        <v>11438</v>
       </c>
       <c r="O11">
-        <v>40150</v>
+        <v>20451</v>
       </c>
       <c r="P11">
-        <v>25598</v>
+        <v>8323</v>
       </c>
       <c r="Q11">
-        <v>998</v>
+        <v>1797</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39629</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-2732</v>
+        <v>13867</v>
       </c>
       <c r="U11">
-        <v>3981</v>
+        <v>3028</v>
       </c>
       <c r="V11">
-        <v>1363</v>
+        <v>3516</v>
       </c>
       <c r="W11">
-        <v>-1414</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-53</v>
+        <v>-1076</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1615,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2125</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39721</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>2124</v>
+        <v>2080</v>
       </c>
       <c r="D12">
-        <v>7917</v>
+        <v>6953</v>
       </c>
       <c r="E12">
-        <v>3964</v>
+        <v>2975</v>
       </c>
       <c r="F12">
-        <v>5216</v>
+        <v>4472</v>
       </c>
       <c r="G12">
-        <v>16755</v>
+        <v>15306</v>
       </c>
       <c r="H12">
-        <v>37140</v>
+        <v>35305</v>
       </c>
       <c r="I12">
-        <v>1045</v>
+        <v>1237</v>
       </c>
       <c r="J12">
-        <v>21559</v>
+        <v>9198</v>
       </c>
       <c r="K12">
-        <v>2684</v>
+        <v>1842</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1659,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14706</v>
+        <v>11396</v>
       </c>
       <c r="O12">
-        <v>41069</v>
+        <v>23673</v>
       </c>
       <c r="P12">
-        <v>25499</v>
+        <v>11147</v>
       </c>
       <c r="Q12">
-        <v>-395</v>
+        <v>-225</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39721</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-3929</v>
+        <v>11632</v>
       </c>
       <c r="U12">
-        <v>3586</v>
+        <v>2803</v>
       </c>
       <c r="V12">
-        <v>3137</v>
+        <v>2003</v>
       </c>
       <c r="W12">
-        <v>-1401</v>
+        <v>-956</v>
       </c>
       <c r="X12">
-        <v>-3246</v>
+        <v>-450</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>2124</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39813</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>2340</v>
+        <v>1445</v>
       </c>
       <c r="D13">
-        <v>7927</v>
+        <v>6122</v>
       </c>
       <c r="E13">
-        <v>3659</v>
+        <v>2848</v>
       </c>
       <c r="F13">
-        <v>5309</v>
+        <v>3918</v>
       </c>
       <c r="G13">
-        <v>16016</v>
+        <v>14939</v>
       </c>
       <c r="H13">
-        <v>36795</v>
+        <v>32972</v>
       </c>
       <c r="I13">
-        <v>1125</v>
+        <v>1013</v>
       </c>
       <c r="J13">
-        <v>21877</v>
+        <v>11377</v>
       </c>
       <c r="K13">
-        <v>3668</v>
+        <v>375</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,203 +1742,203 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16018</v>
+        <v>10144</v>
       </c>
       <c r="O13">
-        <v>42703</v>
+        <v>25068</v>
       </c>
       <c r="P13">
-        <v>26800</v>
+        <v>11961</v>
       </c>
       <c r="Q13">
-        <v>-204</v>
+        <v>-1272</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39813</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>75600</v>
       </c>
       <c r="T13">
-        <v>-5908</v>
+        <v>7904</v>
       </c>
       <c r="U13">
-        <v>3382</v>
+        <v>1531</v>
       </c>
       <c r="V13">
-        <v>3315</v>
+        <v>833</v>
       </c>
       <c r="W13">
-        <v>-1387</v>
+        <v>-1104</v>
       </c>
       <c r="X13">
-        <v>-2604</v>
+        <v>-1242</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-653</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>2340</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39903</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1987</v>
+        <v>1476</v>
       </c>
       <c r="D14">
-        <v>7789</v>
+        <v>5597</v>
       </c>
       <c r="E14">
-        <v>3853</v>
+        <v>2602</v>
       </c>
       <c r="F14">
-        <v>5187</v>
+        <v>3626</v>
       </c>
       <c r="G14">
-        <v>16852</v>
+        <v>13640</v>
       </c>
       <c r="H14">
-        <v>38168</v>
+        <v>30744</v>
       </c>
       <c r="I14">
-        <v>1274</v>
+        <v>765</v>
       </c>
       <c r="J14">
-        <v>24023</v>
+        <v>13144</v>
       </c>
       <c r="K14">
-        <v>2400</v>
+        <v>722</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-641</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N14">
-        <v>17066</v>
+        <v>8135</v>
       </c>
       <c r="O14">
-        <v>44442</v>
+        <v>24592</v>
       </c>
       <c r="P14">
-        <v>27678</v>
+        <v>14057</v>
       </c>
       <c r="Q14">
-        <v>-1228</v>
+        <v>830</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39903</v>
       </c>
       <c r="S14">
-        <v>91100</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>-6274</v>
+        <v>6152</v>
       </c>
       <c r="U14">
-        <v>2154</v>
+        <v>2361</v>
       </c>
       <c r="V14">
-        <v>2320</v>
+        <v>1427</v>
       </c>
       <c r="W14">
-        <v>-1518</v>
+        <v>-1089</v>
       </c>
       <c r="X14">
-        <v>-2312</v>
+        <v>-282</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-762</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1987</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39994</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1875</v>
+        <v>1546</v>
       </c>
       <c r="D15">
-        <v>6917</v>
+        <v>6134</v>
       </c>
       <c r="E15">
-        <v>3408</v>
+        <v>3171</v>
       </c>
       <c r="F15">
-        <v>4543</v>
+        <v>3949</v>
       </c>
       <c r="G15">
-        <v>14825</v>
+        <v>14731</v>
       </c>
       <c r="H15">
-        <v>36137</v>
+        <v>33127</v>
       </c>
       <c r="I15">
-        <v>1064</v>
+        <v>774</v>
       </c>
       <c r="J15">
-        <v>25989</v>
+        <v>13480</v>
       </c>
       <c r="K15">
-        <v>3284</v>
+        <v>399</v>
       </c>
       <c r="L15">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-1240</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13971</v>
+        <v>9666</v>
       </c>
       <c r="O15">
-        <v>43294</v>
+        <v>26440</v>
       </c>
       <c r="P15">
-        <v>29679</v>
+        <v>14074</v>
       </c>
       <c r="Q15">
-        <v>-331</v>
+        <v>241</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39994</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-7157</v>
+        <v>6687</v>
       </c>
       <c r="U15">
-        <v>1823</v>
+        <v>2602</v>
       </c>
       <c r="V15">
-        <v>715</v>
+        <v>3146</v>
       </c>
       <c r="W15">
-        <v>-1503</v>
+        <v>-1072</v>
       </c>
       <c r="X15">
-        <v>-805</v>
+        <v>-2863</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1947,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1875</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40086</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1851</v>
+        <v>1798</v>
       </c>
       <c r="D16">
-        <v>7797</v>
+        <v>6587</v>
       </c>
       <c r="E16">
-        <v>4081</v>
+        <v>3048</v>
       </c>
       <c r="F16">
-        <v>5101</v>
+        <v>4267</v>
       </c>
       <c r="G16">
-        <v>14710</v>
+        <v>14277</v>
       </c>
       <c r="H16">
-        <v>36325</v>
+        <v>33705</v>
       </c>
       <c r="I16">
-        <v>1109</v>
+        <v>1040</v>
       </c>
       <c r="J16">
-        <v>27161</v>
+        <v>13741</v>
       </c>
       <c r="K16">
-        <v>1941</v>
+        <v>313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +1991,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13580</v>
+        <v>9838</v>
       </c>
       <c r="O16">
-        <v>44172</v>
+        <v>26991</v>
       </c>
       <c r="P16">
-        <v>29509</v>
+        <v>14251</v>
       </c>
       <c r="Q16">
-        <v>-282</v>
+        <v>-1000</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40086</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-7847</v>
+        <v>6714</v>
       </c>
       <c r="U16">
-        <v>1541</v>
+        <v>1602</v>
       </c>
       <c r="V16">
-        <v>2705</v>
+        <v>1846</v>
       </c>
       <c r="W16">
-        <v>-1490</v>
+        <v>-1051</v>
       </c>
       <c r="X16">
-        <v>-2682</v>
+        <v>-2565</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1851</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40178</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2155</v>
+        <v>1522</v>
       </c>
       <c r="D17">
-        <v>7856</v>
+        <v>6717</v>
       </c>
       <c r="E17">
-        <v>3785</v>
+        <v>3098</v>
       </c>
       <c r="F17">
-        <v>5122</v>
+        <v>4171</v>
       </c>
       <c r="G17">
-        <v>14761</v>
+        <v>14682</v>
       </c>
       <c r="H17">
-        <v>35401</v>
+        <v>34552</v>
       </c>
       <c r="I17">
-        <v>1255</v>
+        <v>670</v>
       </c>
       <c r="J17">
-        <v>25395</v>
+        <v>13672</v>
       </c>
       <c r="K17">
-        <v>2091</v>
+        <v>1662</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,247 +2074,247 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15117</v>
+        <v>11178</v>
       </c>
       <c r="O17">
-        <v>44078</v>
+        <v>28407</v>
       </c>
       <c r="P17">
-        <v>28843</v>
+        <v>15416</v>
       </c>
       <c r="Q17">
-        <v>502</v>
+        <v>-62</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40178</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>77300</v>
       </c>
       <c r="T17">
-        <v>-8677</v>
+        <v>6145</v>
       </c>
       <c r="U17">
-        <v>2043</v>
+        <v>1540</v>
       </c>
       <c r="V17">
-        <v>2965</v>
+        <v>1465</v>
       </c>
       <c r="W17">
-        <v>-1478</v>
+        <v>-1115</v>
       </c>
       <c r="X17">
-        <v>-2075</v>
+        <v>-1201</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>2155</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40268</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1612</v>
+        <v>1703</v>
       </c>
       <c r="D18">
-        <v>7197</v>
+        <v>6496</v>
       </c>
       <c r="E18">
-        <v>4004</v>
+        <v>3186</v>
       </c>
       <c r="F18">
-        <v>4565</v>
+        <v>4124</v>
       </c>
       <c r="G18">
-        <v>15484</v>
+        <v>13078</v>
       </c>
       <c r="H18">
-        <v>35187</v>
+        <v>34173</v>
       </c>
       <c r="I18">
-        <v>1242</v>
+        <v>956</v>
       </c>
       <c r="J18">
-        <v>26929</v>
+        <v>14809</v>
       </c>
       <c r="K18">
-        <v>1208</v>
+        <v>1050</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-706</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15112</v>
+        <v>9580</v>
       </c>
       <c r="O18">
-        <v>46390</v>
+        <v>27808</v>
       </c>
       <c r="P18">
-        <v>29455</v>
+        <v>16010</v>
       </c>
       <c r="Q18">
-        <v>-361</v>
+        <v>-690</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40268</v>
       </c>
       <c r="S18">
-        <v>82500</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>-11203</v>
+        <v>6365</v>
       </c>
       <c r="U18">
-        <v>1682</v>
+        <v>850</v>
       </c>
       <c r="V18">
-        <v>1354</v>
+        <v>1974</v>
       </c>
       <c r="W18">
-        <v>-1564</v>
+        <v>-1098</v>
       </c>
       <c r="X18">
-        <v>-1277</v>
+        <v>-2512</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1612</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40359</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1795</v>
+        <v>1982</v>
       </c>
       <c r="D19">
-        <v>6616</v>
+        <v>7061</v>
       </c>
       <c r="E19">
-        <v>3741</v>
+        <v>3232</v>
       </c>
       <c r="F19">
-        <v>4387</v>
+        <v>4511</v>
       </c>
       <c r="G19">
-        <v>14275</v>
+        <v>12924</v>
       </c>
       <c r="H19">
-        <v>33255</v>
+        <v>33324</v>
       </c>
       <c r="I19">
-        <v>1038</v>
+        <v>871</v>
       </c>
       <c r="J19">
-        <v>25572</v>
+        <v>14296</v>
       </c>
       <c r="K19">
-        <v>3384</v>
+        <v>857</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-399</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14980</v>
+        <v>9989</v>
       </c>
       <c r="O19">
-        <v>45501</v>
+        <v>27774</v>
       </c>
       <c r="P19">
-        <v>30585</v>
+        <v>15231</v>
       </c>
       <c r="Q19">
-        <v>-158</v>
+        <v>734</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40359</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-12246</v>
+        <v>5550</v>
       </c>
       <c r="U19">
-        <v>1524</v>
+        <v>1584</v>
       </c>
       <c r="V19">
-        <v>-375</v>
+        <v>3465</v>
       </c>
       <c r="W19">
-        <v>-1555</v>
+        <v>-1085</v>
       </c>
       <c r="X19">
-        <v>525</v>
+        <v>-2492</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1795</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40451</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1887</v>
+        <v>1822</v>
       </c>
       <c r="D20">
-        <v>6859</v>
+        <v>6614</v>
       </c>
       <c r="E20">
-        <v>3619</v>
+        <v>3022</v>
       </c>
       <c r="F20">
-        <v>4481</v>
+        <v>4324</v>
       </c>
       <c r="G20">
-        <v>13772</v>
+        <v>15482</v>
       </c>
       <c r="H20">
-        <v>32713</v>
+        <v>36879</v>
       </c>
       <c r="I20">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="J20">
-        <v>24566</v>
+        <v>13595</v>
       </c>
       <c r="K20">
-        <v>1710</v>
+        <v>2416</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2323,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15386</v>
+        <v>13713</v>
       </c>
       <c r="O20">
-        <v>44511</v>
+        <v>30757</v>
       </c>
       <c r="P20">
-        <v>29202</v>
+        <v>17447</v>
       </c>
       <c r="Q20">
-        <v>314</v>
+        <v>1923</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40451</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-11798</v>
+        <v>6122</v>
       </c>
       <c r="U20">
-        <v>1838</v>
+        <v>3507</v>
       </c>
       <c r="V20">
-        <v>3675</v>
+        <v>2417</v>
       </c>
       <c r="W20">
-        <v>-1555</v>
+        <v>-1071</v>
       </c>
       <c r="X20">
-        <v>-3165</v>
+        <v>-503</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1887</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40543</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1942</v>
+        <v>1752</v>
       </c>
       <c r="D21">
-        <v>6927</v>
+        <v>7037</v>
       </c>
       <c r="E21">
-        <v>3322</v>
+        <v>3009</v>
       </c>
       <c r="F21">
-        <v>4544</v>
+        <v>4536</v>
       </c>
       <c r="G21">
-        <v>14112</v>
+        <v>13756</v>
       </c>
       <c r="H21">
-        <v>32011</v>
+        <v>35050</v>
       </c>
       <c r="I21">
-        <v>1237</v>
+        <v>835</v>
       </c>
       <c r="J21">
-        <v>25800</v>
+        <v>13370</v>
       </c>
       <c r="K21">
-        <v>1007</v>
+        <v>1747</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,247 +2406,247 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14102</v>
+        <v>12804</v>
       </c>
       <c r="O21">
-        <v>44237</v>
+        <v>29929</v>
       </c>
       <c r="P21">
-        <v>28907</v>
+        <v>16502</v>
       </c>
       <c r="Q21">
-        <v>555</v>
+        <v>-1804</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40543</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>78300</v>
       </c>
       <c r="T21">
-        <v>-12226</v>
+        <v>5121</v>
       </c>
       <c r="U21">
-        <v>2393</v>
+        <v>1703</v>
       </c>
       <c r="V21">
-        <v>2693</v>
+        <v>1581</v>
       </c>
       <c r="W21">
-        <v>-1555</v>
+        <v>-1169</v>
       </c>
       <c r="X21">
-        <v>-1821</v>
+        <v>-3071</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1942</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40633</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1249</v>
+        <v>1919</v>
       </c>
       <c r="D22">
-        <v>6392</v>
+        <v>6791</v>
       </c>
       <c r="E22">
-        <v>2778</v>
+        <v>2991</v>
       </c>
       <c r="F22">
-        <v>4017</v>
+        <v>4496</v>
       </c>
       <c r="G22">
-        <v>15804</v>
+        <v>13393</v>
       </c>
       <c r="H22">
-        <v>33956</v>
+        <v>35554</v>
       </c>
       <c r="I22">
-        <v>1289</v>
+        <v>964</v>
       </c>
       <c r="J22">
-        <v>25250</v>
+        <v>11885</v>
       </c>
       <c r="K22">
-        <v>825</v>
+        <v>1730</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="N22">
-        <v>15386</v>
+        <v>14343</v>
       </c>
       <c r="O22">
-        <v>45432</v>
+        <v>30042</v>
       </c>
       <c r="P22">
-        <v>28480</v>
+        <v>16852</v>
       </c>
       <c r="Q22">
-        <v>1024</v>
+        <v>-381</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40633</v>
       </c>
       <c r="S22">
-        <v>80200</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>-11476</v>
+        <v>5512</v>
       </c>
       <c r="U22">
-        <v>3417</v>
+        <v>1322</v>
       </c>
       <c r="V22">
-        <v>1872</v>
+        <v>2395</v>
       </c>
       <c r="W22">
-        <v>-1585</v>
+        <v>-1159</v>
       </c>
       <c r="X22">
-        <v>-275</v>
+        <v>-2659</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1249</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40724</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1530</v>
+        <v>2409</v>
       </c>
       <c r="D23">
-        <v>6083</v>
+        <v>8273</v>
       </c>
       <c r="E23">
-        <v>2989</v>
+        <v>3443</v>
       </c>
       <c r="F23">
-        <v>3987</v>
+        <v>5429</v>
       </c>
       <c r="G23">
-        <v>15928</v>
+        <v>14333</v>
       </c>
       <c r="H23">
-        <v>34621</v>
+        <v>36794</v>
       </c>
       <c r="I23">
-        <v>1496</v>
+        <v>1027</v>
       </c>
       <c r="J23">
-        <v>26683</v>
+        <v>13037</v>
       </c>
       <c r="K23">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="L23">
-        <v>-136</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-827</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14091</v>
+        <v>14763</v>
       </c>
       <c r="O23">
-        <v>45515</v>
+        <v>31614</v>
       </c>
       <c r="P23">
-        <v>29793</v>
+        <v>16921</v>
       </c>
       <c r="Q23">
-        <v>-473</v>
+        <v>856</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40724</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-10894</v>
+        <v>5180</v>
       </c>
       <c r="U23">
-        <v>2944</v>
+        <v>2178</v>
       </c>
       <c r="V23">
-        <v>462</v>
+        <v>4120</v>
       </c>
       <c r="W23">
-        <v>-1585</v>
+        <v>-1149</v>
       </c>
       <c r="X23">
-        <v>-593</v>
+        <v>-3039</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1530</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40816</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1788</v>
+        <v>2377</v>
       </c>
       <c r="D24">
-        <v>6649</v>
+        <v>8362</v>
       </c>
       <c r="E24">
-        <v>3085</v>
+        <v>3242</v>
       </c>
       <c r="F24">
-        <v>4285</v>
+        <v>5515</v>
       </c>
       <c r="G24">
-        <v>16046</v>
+        <v>15090</v>
       </c>
       <c r="H24">
-        <v>34802</v>
+        <v>36220</v>
       </c>
       <c r="I24">
-        <v>1547</v>
+        <v>1121</v>
       </c>
       <c r="J24">
-        <v>28098</v>
+        <v>12870</v>
       </c>
       <c r="K24">
-        <v>696</v>
+        <v>2563</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2655,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12672</v>
+        <v>16050</v>
       </c>
       <c r="O24">
-        <v>45601</v>
+        <v>32566</v>
       </c>
       <c r="P24">
-        <v>29969</v>
+        <v>17759</v>
       </c>
       <c r="Q24">
-        <v>870</v>
+        <v>1213</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40816</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-10799</v>
+        <v>3654</v>
       </c>
       <c r="U24">
-        <v>3814</v>
+        <v>3391</v>
       </c>
       <c r="V24">
-        <v>2374</v>
+        <v>3053</v>
       </c>
       <c r="W24">
-        <v>-1588</v>
+        <v>-1133</v>
       </c>
       <c r="X24">
-        <v>-1401</v>
+        <v>-1356</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1788</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40908</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1938</v>
+        <v>1886</v>
       </c>
       <c r="D25">
-        <v>6982</v>
+        <v>7671</v>
       </c>
       <c r="E25">
-        <v>3100</v>
+        <v>3201</v>
       </c>
       <c r="F25">
-        <v>4550</v>
+        <v>4979</v>
       </c>
       <c r="G25">
-        <v>16574</v>
+        <v>14859</v>
       </c>
       <c r="H25">
-        <v>35577</v>
+        <v>35488</v>
       </c>
       <c r="I25">
-        <v>1573</v>
+        <v>1031</v>
       </c>
       <c r="J25">
-        <v>26960</v>
+        <v>14828</v>
       </c>
       <c r="K25">
-        <v>710</v>
+        <v>1511</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,247 +2738,247 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14258</v>
+        <v>14794</v>
       </c>
       <c r="O25">
-        <v>45894</v>
+        <v>33725</v>
       </c>
       <c r="P25">
-        <v>30087</v>
+        <v>18545</v>
       </c>
       <c r="Q25">
-        <v>1070</v>
+        <v>-841</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40908</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>78100</v>
       </c>
       <c r="T25">
-        <v>-10317</v>
+        <v>1763</v>
       </c>
       <c r="U25">
-        <v>4884</v>
+        <v>2550</v>
       </c>
       <c r="V25">
-        <v>3092</v>
+        <v>961</v>
       </c>
       <c r="W25">
-        <v>-1586</v>
+        <v>-1347</v>
       </c>
       <c r="X25">
-        <v>-1566</v>
+        <v>-1284</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1938</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1711</v>
+        <v>2161</v>
       </c>
       <c r="D26">
-        <v>6971</v>
+        <v>7448</v>
       </c>
       <c r="E26">
-        <v>3499</v>
+        <v>3472</v>
       </c>
       <c r="F26">
-        <v>4472</v>
+        <v>5006</v>
       </c>
       <c r="G26">
-        <v>17608</v>
+        <v>15338</v>
       </c>
       <c r="H26">
-        <v>36851</v>
+        <v>36399</v>
       </c>
       <c r="I26">
-        <v>1666</v>
+        <v>1044</v>
       </c>
       <c r="J26">
-        <v>25851</v>
+        <v>15346</v>
       </c>
       <c r="K26">
-        <v>643</v>
+        <v>4085</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-742</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-1667</v>
       </c>
       <c r="N26">
-        <v>16467</v>
+        <v>15283</v>
       </c>
       <c r="O26">
-        <v>47751</v>
+        <v>34784</v>
       </c>
       <c r="P26">
-        <v>29067</v>
+        <v>20841</v>
       </c>
       <c r="Q26">
-        <v>-645</v>
+        <v>1026</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="S26">
-        <v>79500</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>-10900</v>
+        <v>1615</v>
       </c>
       <c r="U26">
-        <v>4239</v>
+        <v>3576</v>
       </c>
       <c r="V26">
-        <v>2149</v>
+        <v>1898</v>
       </c>
       <c r="W26">
-        <v>-1619</v>
+        <v>-1338</v>
       </c>
       <c r="X26">
-        <v>-1853</v>
+        <v>-783</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1711</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1590</v>
+        <v>2317</v>
       </c>
       <c r="D27">
-        <v>6064</v>
+        <v>8120</v>
       </c>
       <c r="E27">
-        <v>3090</v>
+        <v>3553</v>
       </c>
       <c r="F27">
-        <v>3887</v>
+        <v>5454</v>
       </c>
       <c r="G27">
-        <v>16884</v>
+        <v>15561</v>
       </c>
       <c r="H27">
-        <v>36627</v>
+        <v>35798</v>
       </c>
       <c r="I27">
-        <v>1746</v>
+        <v>1019</v>
       </c>
       <c r="J27">
-        <v>28588</v>
+        <v>14824</v>
       </c>
       <c r="K27">
-        <v>1004</v>
+        <v>2694</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-814</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>13355</v>
+        <v>16830</v>
       </c>
       <c r="O27">
-        <v>47184</v>
+        <v>35652</v>
       </c>
       <c r="P27">
-        <v>31346</v>
+        <v>20802</v>
       </c>
       <c r="Q27">
-        <v>875</v>
+        <v>270</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-10557</v>
+        <v>146</v>
       </c>
       <c r="U27">
-        <v>5076</v>
+        <v>3846</v>
       </c>
       <c r="V27">
-        <v>843</v>
+        <v>3480</v>
       </c>
       <c r="W27">
-        <v>-1618</v>
+        <v>-1325</v>
       </c>
       <c r="X27">
-        <v>341</v>
+        <v>-2705</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1590</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1781</v>
+        <v>2227</v>
       </c>
       <c r="D28">
-        <v>6917</v>
+        <v>7920</v>
       </c>
       <c r="E28">
-        <v>3648</v>
+        <v>3562</v>
       </c>
       <c r="F28">
-        <v>4398</v>
+        <v>5336</v>
       </c>
       <c r="G28">
-        <v>18432</v>
+        <v>17600</v>
       </c>
       <c r="H28">
-        <v>38660</v>
+        <v>38309</v>
       </c>
       <c r="I28">
-        <v>1909</v>
+        <v>1127</v>
       </c>
       <c r="J28">
-        <v>26595</v>
+        <v>17520</v>
       </c>
       <c r="K28">
-        <v>898</v>
+        <v>2141</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +2987,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>17243</v>
+        <v>16726</v>
       </c>
       <c r="O28">
-        <v>48937</v>
+        <v>38193</v>
       </c>
       <c r="P28">
-        <v>31747</v>
+        <v>22436</v>
       </c>
       <c r="Q28">
-        <v>1081</v>
+        <v>971</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-10277</v>
+        <v>116</v>
       </c>
       <c r="U28">
-        <v>6197</v>
+        <v>4817</v>
       </c>
       <c r="V28">
-        <v>3228</v>
+        <v>2393</v>
       </c>
       <c r="W28">
-        <v>-1618</v>
+        <v>-1310</v>
       </c>
       <c r="X28">
-        <v>-1932</v>
+        <v>-1400</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="AA28">
-        <v>1781</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1970</v>
+        <v>2095</v>
       </c>
       <c r="D29">
-        <v>7473</v>
+        <v>7889</v>
       </c>
       <c r="E29">
-        <v>3985</v>
+        <v>3589</v>
       </c>
       <c r="F29">
-        <v>4738</v>
+        <v>5208</v>
       </c>
       <c r="G29">
-        <v>20859</v>
+        <v>16590</v>
       </c>
       <c r="H29">
-        <v>41951</v>
+        <v>37670</v>
       </c>
       <c r="I29">
-        <v>1973</v>
+        <v>1103</v>
       </c>
       <c r="J29">
-        <v>28065</v>
+        <v>17639</v>
       </c>
       <c r="K29">
-        <v>2905</v>
+        <v>2419</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3070,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>18514</v>
+        <v>17016</v>
       </c>
       <c r="O29">
-        <v>51584</v>
+        <v>39523</v>
       </c>
       <c r="P29">
-        <v>33975</v>
+        <v>22839</v>
       </c>
       <c r="Q29">
-        <v>1448</v>
+        <v>-1834</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>87100</v>
       </c>
       <c r="T29">
-        <v>-9633</v>
+        <v>-1853</v>
       </c>
       <c r="U29">
-        <v>7667</v>
+        <v>2983</v>
       </c>
       <c r="V29">
-        <v>1920</v>
+        <v>1650</v>
       </c>
       <c r="W29">
-        <v>-1618</v>
+        <v>-1431</v>
       </c>
       <c r="X29">
-        <v>359</v>
+        <v>-3212</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="AA29">
-        <v>1970</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>694</v>
+        <v>2125</v>
       </c>
       <c r="D30">
-        <v>8294</v>
+        <v>7584</v>
       </c>
       <c r="E30">
-        <v>3194</v>
+        <v>3591</v>
       </c>
       <c r="F30">
-        <v>5293</v>
+        <v>5095</v>
       </c>
       <c r="G30">
-        <v>21594</v>
+        <v>16661</v>
       </c>
       <c r="H30">
-        <v>42968</v>
+        <v>37418</v>
       </c>
       <c r="I30">
-        <v>2242</v>
+        <v>967</v>
       </c>
       <c r="J30">
-        <v>31306</v>
+        <v>20796</v>
       </c>
       <c r="K30">
-        <v>499</v>
+        <v>1539</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-972</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-739</v>
       </c>
       <c r="N30">
-        <v>15962</v>
+        <v>14509</v>
       </c>
       <c r="O30">
-        <v>53198</v>
+        <v>40150</v>
       </c>
       <c r="P30">
-        <v>34339</v>
+        <v>25598</v>
       </c>
       <c r="Q30">
-        <v>741</v>
+        <v>998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="S30">
-        <v>80600</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>-10230</v>
+        <v>-2732</v>
       </c>
       <c r="U30">
-        <v>8447</v>
+        <v>3981</v>
       </c>
       <c r="V30">
-        <v>2921</v>
+        <v>1363</v>
       </c>
       <c r="W30">
-        <v>-1666</v>
+        <v>-1414</v>
       </c>
       <c r="X30">
-        <v>-1537</v>
+        <v>-53</v>
       </c>
       <c r="Y30">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>694</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1556</v>
+        <v>2124</v>
       </c>
       <c r="D31">
-        <v>6896</v>
+        <v>7917</v>
       </c>
       <c r="E31">
-        <v>3373</v>
+        <v>3964</v>
       </c>
       <c r="F31">
-        <v>4281</v>
+        <v>5216</v>
       </c>
       <c r="G31">
-        <v>20593</v>
+        <v>16755</v>
       </c>
       <c r="H31">
-        <v>43070</v>
+        <v>37140</v>
       </c>
       <c r="I31">
-        <v>2156</v>
+        <v>1045</v>
       </c>
       <c r="J31">
-        <v>29578</v>
+        <v>21559</v>
       </c>
       <c r="K31">
-        <v>608</v>
+        <v>2684</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3236,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>17688</v>
+        <v>14706</v>
       </c>
       <c r="O31">
-        <v>53552</v>
+        <v>41069</v>
       </c>
       <c r="P31">
-        <v>34848</v>
+        <v>25499</v>
       </c>
       <c r="Q31">
-        <v>-1245</v>
+        <v>-395</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-10482</v>
+        <v>-3929</v>
       </c>
       <c r="U31">
-        <v>7200</v>
+        <v>3586</v>
       </c>
       <c r="V31">
-        <v>1380</v>
+        <v>3137</v>
       </c>
       <c r="W31">
-        <v>-1659</v>
+        <v>-1401</v>
       </c>
       <c r="X31">
-        <v>-1738</v>
+        <v>-3246</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="AA31">
-        <v>1556</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>2198</v>
+        <v>2340</v>
       </c>
       <c r="D32">
-        <v>7726</v>
+        <v>7927</v>
       </c>
       <c r="E32">
-        <v>2936</v>
+        <v>3659</v>
       </c>
       <c r="F32">
-        <v>4982</v>
+        <v>5309</v>
       </c>
       <c r="G32">
-        <v>20028</v>
+        <v>16016</v>
       </c>
       <c r="H32">
-        <v>40721</v>
+        <v>36795</v>
       </c>
       <c r="I32">
-        <v>1953</v>
+        <v>1125</v>
       </c>
       <c r="J32">
-        <v>28048</v>
+        <v>21877</v>
       </c>
       <c r="K32">
-        <v>592</v>
+        <v>3668</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3319,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>17441</v>
+        <v>16018</v>
       </c>
       <c r="O32">
-        <v>50889</v>
+        <v>42703</v>
       </c>
       <c r="P32">
-        <v>31665</v>
+        <v>26800</v>
       </c>
       <c r="Q32">
-        <v>-609</v>
+        <v>-204</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-10168</v>
+        <v>-5908</v>
       </c>
       <c r="U32">
-        <v>6587</v>
+        <v>3382</v>
       </c>
       <c r="V32">
-        <v>3993</v>
+        <v>3315</v>
       </c>
       <c r="W32">
-        <v>-1673</v>
+        <v>-1387</v>
       </c>
       <c r="X32">
-        <v>-4277</v>
+        <v>-2604</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-12</v>
+        <v>-653</v>
       </c>
       <c r="AA32">
-        <v>2198</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>2247</v>
+        <v>1987</v>
       </c>
       <c r="D33">
-        <v>7504</v>
+        <v>7789</v>
       </c>
       <c r="E33">
-        <v>2936</v>
+        <v>3853</v>
       </c>
       <c r="F33">
-        <v>4886</v>
+        <v>5187</v>
       </c>
       <c r="G33">
-        <v>18538</v>
+        <v>16852</v>
       </c>
       <c r="H33">
-        <v>39380</v>
+        <v>38168</v>
       </c>
       <c r="I33">
-        <v>1662</v>
+        <v>1274</v>
       </c>
       <c r="J33">
-        <v>28179</v>
+        <v>24023</v>
       </c>
       <c r="K33">
-        <v>545</v>
+        <v>2400</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,247 +3402,247 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>15599</v>
+        <v>17066</v>
       </c>
       <c r="O33">
-        <v>49322</v>
+        <v>44442</v>
       </c>
       <c r="P33">
-        <v>31766</v>
+        <v>27678</v>
       </c>
       <c r="Q33">
-        <v>-709</v>
+        <v>-1228</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>91100</v>
       </c>
       <c r="T33">
-        <v>-9942</v>
+        <v>-6274</v>
       </c>
       <c r="U33">
-        <v>5880</v>
+        <v>2154</v>
       </c>
       <c r="V33">
-        <v>1683</v>
+        <v>2320</v>
       </c>
       <c r="W33">
-        <v>-1778</v>
+        <v>-1518</v>
       </c>
       <c r="X33">
-        <v>-1889</v>
+        <v>-2312</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-11</v>
+        <v>-762</v>
       </c>
       <c r="AA33">
-        <v>2247</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1910</v>
+        <v>1875</v>
       </c>
       <c r="D34">
-        <v>7499</v>
+        <v>6917</v>
       </c>
       <c r="E34">
-        <v>2950</v>
+        <v>3408</v>
       </c>
       <c r="F34">
-        <v>4718</v>
+        <v>4543</v>
       </c>
       <c r="G34">
-        <v>19442</v>
+        <v>14825</v>
       </c>
       <c r="H34">
-        <v>39801</v>
+        <v>36137</v>
       </c>
       <c r="I34">
-        <v>2068</v>
+        <v>1064</v>
       </c>
       <c r="J34">
-        <v>26942</v>
+        <v>25989</v>
       </c>
       <c r="K34">
-        <v>730</v>
+        <v>3284</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-465</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-1240</v>
       </c>
       <c r="N34">
-        <v>17191</v>
+        <v>13971</v>
       </c>
       <c r="O34">
-        <v>50540</v>
+        <v>43294</v>
       </c>
       <c r="P34">
-        <v>31759</v>
+        <v>29679</v>
       </c>
       <c r="Q34">
-        <v>707</v>
+        <v>-331</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="S34">
-        <v>77400</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>-10739</v>
+        <v>-7157</v>
       </c>
       <c r="U34">
-        <v>6593</v>
+        <v>1823</v>
       </c>
       <c r="V34">
-        <v>2422</v>
+        <v>715</v>
       </c>
       <c r="W34">
-        <v>-1775</v>
+        <v>-1503</v>
       </c>
       <c r="X34">
-        <v>-1747</v>
+        <v>-805</v>
       </c>
       <c r="Y34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1910</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1354</v>
+        <v>1851</v>
       </c>
       <c r="D35">
-        <v>6751</v>
+        <v>7797</v>
       </c>
       <c r="E35">
-        <v>2958</v>
+        <v>4081</v>
       </c>
       <c r="F35">
-        <v>4286</v>
+        <v>5101</v>
       </c>
       <c r="G35">
-        <v>15741</v>
+        <v>14710</v>
       </c>
       <c r="H35">
-        <v>38042</v>
+        <v>36325</v>
       </c>
       <c r="I35">
-        <v>1812</v>
+        <v>1109</v>
       </c>
       <c r="J35">
-        <v>23095</v>
+        <v>27161</v>
       </c>
       <c r="K35">
-        <v>1551</v>
+        <v>1941</v>
       </c>
       <c r="L35">
-        <v>-167</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-2137</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>18486</v>
+        <v>13580</v>
       </c>
       <c r="O35">
-        <v>48227</v>
+        <v>44172</v>
       </c>
       <c r="P35">
-        <v>30970</v>
+        <v>29509</v>
       </c>
       <c r="Q35">
-        <v>-3534</v>
+        <v>-282</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-10185</v>
+        <v>-7847</v>
       </c>
       <c r="U35">
-        <v>3081</v>
+        <v>1541</v>
       </c>
       <c r="V35">
-        <v>1241</v>
+        <v>2705</v>
       </c>
       <c r="W35">
-        <v>-1780</v>
+        <v>-1490</v>
       </c>
       <c r="X35">
-        <v>-3151</v>
+        <v>-2682</v>
       </c>
       <c r="Y35">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="AA35">
-        <v>1354</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>2319</v>
+        <v>2155</v>
       </c>
       <c r="D36">
-        <v>7699</v>
+        <v>7856</v>
       </c>
       <c r="E36">
-        <v>3506</v>
+        <v>3785</v>
       </c>
       <c r="F36">
-        <v>5034</v>
+        <v>5122</v>
       </c>
       <c r="G36">
-        <v>17163</v>
+        <v>14761</v>
       </c>
       <c r="H36">
-        <v>39923</v>
+        <v>35401</v>
       </c>
       <c r="I36">
-        <v>1708</v>
+        <v>1255</v>
       </c>
       <c r="J36">
-        <v>24823</v>
+        <v>25395</v>
       </c>
       <c r="K36">
-        <v>269</v>
+        <v>2091</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3651,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>18046</v>
+        <v>15117</v>
       </c>
       <c r="O36">
-        <v>49332</v>
+        <v>44078</v>
       </c>
       <c r="P36">
-        <v>30597</v>
+        <v>28843</v>
       </c>
       <c r="Q36">
-        <v>927</v>
+        <v>502</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-9409</v>
+        <v>-8677</v>
       </c>
       <c r="U36">
-        <v>4008</v>
+        <v>2043</v>
       </c>
       <c r="V36">
-        <v>3442</v>
+        <v>2965</v>
       </c>
       <c r="W36">
-        <v>-1777</v>
+        <v>-1478</v>
       </c>
       <c r="X36">
-        <v>-2404</v>
+        <v>-2075</v>
       </c>
       <c r="Y36">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AA36">
-        <v>2319</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1896</v>
+        <v>1612</v>
       </c>
       <c r="D37">
-        <v>7642</v>
+        <v>7197</v>
       </c>
       <c r="E37">
-        <v>3073</v>
+        <v>4004</v>
       </c>
       <c r="F37">
-        <v>5037</v>
+        <v>4565</v>
       </c>
       <c r="G37">
-        <v>19575</v>
+        <v>15484</v>
       </c>
       <c r="H37">
-        <v>41420</v>
+        <v>35187</v>
       </c>
       <c r="I37">
-        <v>1704</v>
+        <v>1242</v>
       </c>
       <c r="J37">
-        <v>26388</v>
+        <v>26929</v>
       </c>
       <c r="K37">
-        <v>355</v>
+        <v>1208</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3734,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>18045</v>
+        <v>15112</v>
       </c>
       <c r="O37">
-        <v>50575</v>
+        <v>46390</v>
       </c>
       <c r="P37">
-        <v>32528</v>
+        <v>29455</v>
       </c>
       <c r="Q37">
-        <v>2498</v>
+        <v>-361</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>82500</v>
       </c>
       <c r="T37">
-        <v>-9155</v>
+        <v>-11203</v>
       </c>
       <c r="U37">
-        <v>6507</v>
+        <v>1682</v>
       </c>
       <c r="V37">
-        <v>2083</v>
+        <v>1354</v>
       </c>
       <c r="W37">
-        <v>-1779</v>
+        <v>-1564</v>
       </c>
       <c r="X37">
-        <v>453</v>
+        <v>-1277</v>
       </c>
       <c r="Y37">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AA37">
-        <v>1896</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1616</v>
+        <v>1795</v>
       </c>
       <c r="D38">
-        <v>7713</v>
+        <v>6616</v>
       </c>
       <c r="E38">
-        <v>3080</v>
+        <v>3741</v>
       </c>
       <c r="F38">
-        <v>4935</v>
+        <v>4387</v>
       </c>
       <c r="G38">
-        <v>20514</v>
+        <v>14275</v>
       </c>
       <c r="H38">
-        <v>42875</v>
+        <v>33255</v>
       </c>
       <c r="I38">
-        <v>2299</v>
+        <v>1038</v>
       </c>
       <c r="J38">
-        <v>26600</v>
+        <v>25572</v>
       </c>
       <c r="K38">
-        <v>338</v>
+        <v>3384</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-399</v>
       </c>
       <c r="N38">
-        <v>18833</v>
+        <v>14980</v>
       </c>
       <c r="O38">
-        <v>52474</v>
+        <v>45501</v>
       </c>
       <c r="P38">
-        <v>31808</v>
+        <v>30585</v>
       </c>
       <c r="Q38">
-        <v>354</v>
+        <v>-158</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="S38">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>-9599</v>
+        <v>-12246</v>
       </c>
       <c r="U38">
-        <v>6861</v>
+        <v>1524</v>
       </c>
       <c r="V38">
-        <v>3324</v>
+        <v>-375</v>
       </c>
       <c r="W38">
-        <v>-1825</v>
+        <v>-1555</v>
       </c>
       <c r="X38">
-        <v>-2959</v>
+        <v>525</v>
       </c>
       <c r="Y38">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AA38">
-        <v>1616</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1826</v>
+        <v>1887</v>
       </c>
       <c r="D39">
-        <v>7153</v>
+        <v>6859</v>
       </c>
       <c r="E39">
-        <v>2785</v>
+        <v>3619</v>
       </c>
       <c r="F39">
-        <v>4751</v>
+        <v>4481</v>
       </c>
       <c r="G39">
-        <v>16861</v>
+        <v>13772</v>
       </c>
       <c r="H39">
-        <v>37494</v>
+        <v>32713</v>
       </c>
       <c r="I39">
-        <v>2073</v>
+        <v>1089</v>
       </c>
       <c r="J39">
-        <v>24950</v>
+        <v>24566</v>
       </c>
       <c r="K39">
-        <v>1438</v>
+        <v>1710</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3641</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>16584</v>
+        <v>15386</v>
       </c>
       <c r="O39">
-        <v>48557</v>
+        <v>44511</v>
       </c>
       <c r="P39">
-        <v>28370</v>
+        <v>29202</v>
       </c>
       <c r="Q39">
-        <v>-3115</v>
+        <v>314</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-11063</v>
+        <v>-11798</v>
       </c>
       <c r="U39">
-        <v>3746</v>
+        <v>1838</v>
       </c>
       <c r="V39">
-        <v>1111</v>
+        <v>3675</v>
       </c>
       <c r="W39">
-        <v>-1828</v>
+        <v>-1555</v>
       </c>
       <c r="X39">
-        <v>-4549</v>
+        <v>-3165</v>
       </c>
       <c r="Y39">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AA39">
-        <v>1826</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D40">
-        <v>6651</v>
+        <v>6927</v>
       </c>
       <c r="E40">
-        <v>3344</v>
+        <v>3322</v>
       </c>
       <c r="F40">
-        <v>4472</v>
+        <v>4544</v>
       </c>
       <c r="G40">
-        <v>17776</v>
+        <v>14112</v>
       </c>
       <c r="H40">
-        <v>39162</v>
+        <v>32011</v>
       </c>
       <c r="I40">
-        <v>1991</v>
+        <v>1237</v>
       </c>
       <c r="J40">
-        <v>26996</v>
+        <v>25800</v>
       </c>
       <c r="K40">
-        <v>281</v>
+        <v>1007</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +3983,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>15792</v>
+        <v>14102</v>
       </c>
       <c r="O40">
-        <v>49282</v>
+        <v>44237</v>
       </c>
       <c r="P40">
-        <v>29628</v>
+        <v>28907</v>
       </c>
       <c r="Q40">
-        <v>457</v>
+        <v>555</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-10120</v>
+        <v>-12226</v>
       </c>
       <c r="U40">
-        <v>4200</v>
+        <v>2393</v>
       </c>
       <c r="V40">
-        <v>1925</v>
+        <v>2693</v>
       </c>
       <c r="W40">
-        <v>-1830</v>
+        <v>-1555</v>
       </c>
       <c r="X40">
-        <v>-954</v>
+        <v>-1821</v>
       </c>
       <c r="Y40">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="AA40">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>2307</v>
+        <v>1249</v>
       </c>
       <c r="D41">
-        <v>7446</v>
+        <v>6392</v>
       </c>
       <c r="E41">
-        <v>3080</v>
+        <v>2778</v>
       </c>
       <c r="F41">
-        <v>5030</v>
+        <v>4017</v>
       </c>
       <c r="G41">
-        <v>17453</v>
+        <v>15804</v>
       </c>
       <c r="H41">
-        <v>39129</v>
+        <v>33956</v>
       </c>
       <c r="I41">
-        <v>2155</v>
+        <v>1289</v>
       </c>
       <c r="J41">
-        <v>27301</v>
+        <v>25250</v>
       </c>
       <c r="K41">
-        <v>152</v>
+        <v>825</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4066,1705 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>15525</v>
+        <v>15386</v>
       </c>
       <c r="O41">
-        <v>49374</v>
+        <v>45432</v>
       </c>
       <c r="P41">
-        <v>29490</v>
+        <v>28480</v>
       </c>
       <c r="Q41">
-        <v>620</v>
+        <v>1024</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>80200</v>
       </c>
       <c r="T41">
-        <v>-10245</v>
+        <v>-11476</v>
       </c>
       <c r="U41">
-        <v>4821</v>
+        <v>3417</v>
       </c>
       <c r="V41">
-        <v>3614</v>
+        <v>1872</v>
       </c>
       <c r="W41">
-        <v>-1827</v>
+        <v>-1585</v>
       </c>
       <c r="X41">
-        <v>-2528</v>
+        <v>-275</v>
       </c>
       <c r="Y41">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="AA41">
-        <v>2307</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42460</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1530</v>
+      </c>
+      <c r="D42">
+        <v>6083</v>
+      </c>
+      <c r="E42">
+        <v>2989</v>
+      </c>
+      <c r="F42">
+        <v>3987</v>
+      </c>
+      <c r="G42">
+        <v>15928</v>
+      </c>
+      <c r="H42">
+        <v>34621</v>
+      </c>
+      <c r="I42">
+        <v>1496</v>
+      </c>
+      <c r="J42">
+        <v>26683</v>
+      </c>
+      <c r="K42">
+        <v>673</v>
+      </c>
+      <c r="L42">
+        <v>-136</v>
+      </c>
+      <c r="M42">
+        <v>-827</v>
+      </c>
+      <c r="N42">
+        <v>14091</v>
+      </c>
+      <c r="O42">
+        <v>45515</v>
+      </c>
+      <c r="P42">
+        <v>29793</v>
+      </c>
+      <c r="Q42">
+        <v>-473</v>
+      </c>
+      <c r="R42">
+        <v>42460</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>-10894</v>
+      </c>
+      <c r="U42">
+        <v>2944</v>
+      </c>
+      <c r="V42">
+        <v>462</v>
+      </c>
+      <c r="W42">
+        <v>-1585</v>
+      </c>
+      <c r="X42">
+        <v>-593</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-7</v>
+      </c>
+      <c r="AA42">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1788</v>
+      </c>
+      <c r="D43">
+        <v>6649</v>
+      </c>
+      <c r="E43">
+        <v>3085</v>
+      </c>
+      <c r="F43">
+        <v>4285</v>
+      </c>
+      <c r="G43">
+        <v>16046</v>
+      </c>
+      <c r="H43">
+        <v>34802</v>
+      </c>
+      <c r="I43">
+        <v>1547</v>
+      </c>
+      <c r="J43">
+        <v>28098</v>
+      </c>
+      <c r="K43">
+        <v>696</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>12672</v>
+      </c>
+      <c r="O43">
+        <v>45601</v>
+      </c>
+      <c r="P43">
+        <v>29969</v>
+      </c>
+      <c r="Q43">
+        <v>870</v>
+      </c>
+      <c r="R43">
+        <v>42551</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-10799</v>
+      </c>
+      <c r="U43">
+        <v>3814</v>
+      </c>
+      <c r="V43">
+        <v>2374</v>
+      </c>
+      <c r="W43">
+        <v>-1588</v>
+      </c>
+      <c r="X43">
+        <v>-1401</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-9</v>
+      </c>
+      <c r="AA43">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1938</v>
+      </c>
+      <c r="D44">
+        <v>6982</v>
+      </c>
+      <c r="E44">
+        <v>3100</v>
+      </c>
+      <c r="F44">
+        <v>4550</v>
+      </c>
+      <c r="G44">
+        <v>16574</v>
+      </c>
+      <c r="H44">
+        <v>35577</v>
+      </c>
+      <c r="I44">
+        <v>1573</v>
+      </c>
+      <c r="J44">
+        <v>26960</v>
+      </c>
+      <c r="K44">
+        <v>710</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>14258</v>
+      </c>
+      <c r="O44">
+        <v>45894</v>
+      </c>
+      <c r="P44">
+        <v>30087</v>
+      </c>
+      <c r="Q44">
+        <v>1070</v>
+      </c>
+      <c r="R44">
+        <v>42643</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-10317</v>
+      </c>
+      <c r="U44">
+        <v>4884</v>
+      </c>
+      <c r="V44">
+        <v>3092</v>
+      </c>
+      <c r="W44">
+        <v>-1586</v>
+      </c>
+      <c r="X44">
+        <v>-1566</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-10</v>
+      </c>
+      <c r="AA44">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1711</v>
+      </c>
+      <c r="D45">
+        <v>6971</v>
+      </c>
+      <c r="E45">
+        <v>3499</v>
+      </c>
+      <c r="F45">
+        <v>4472</v>
+      </c>
+      <c r="G45">
+        <v>17608</v>
+      </c>
+      <c r="H45">
+        <v>36851</v>
+      </c>
+      <c r="I45">
+        <v>1666</v>
+      </c>
+      <c r="J45">
+        <v>25851</v>
+      </c>
+      <c r="K45">
+        <v>643</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>16467</v>
+      </c>
+      <c r="O45">
+        <v>47751</v>
+      </c>
+      <c r="P45">
+        <v>29067</v>
+      </c>
+      <c r="Q45">
+        <v>-645</v>
+      </c>
+      <c r="R45">
+        <v>42735</v>
+      </c>
+      <c r="S45">
+        <v>79500</v>
+      </c>
+      <c r="T45">
+        <v>-10900</v>
+      </c>
+      <c r="U45">
+        <v>4239</v>
+      </c>
+      <c r="V45">
+        <v>2149</v>
+      </c>
+      <c r="W45">
+        <v>-1619</v>
+      </c>
+      <c r="X45">
+        <v>-1853</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-15</v>
+      </c>
+      <c r="AA45">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1590</v>
+      </c>
+      <c r="D46">
+        <v>6064</v>
+      </c>
+      <c r="E46">
+        <v>3090</v>
+      </c>
+      <c r="F46">
+        <v>3887</v>
+      </c>
+      <c r="G46">
+        <v>16884</v>
+      </c>
+      <c r="H46">
+        <v>36627</v>
+      </c>
+      <c r="I46">
+        <v>1746</v>
+      </c>
+      <c r="J46">
+        <v>28588</v>
+      </c>
+      <c r="K46">
+        <v>1004</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-814</v>
+      </c>
+      <c r="N46">
+        <v>13355</v>
+      </c>
+      <c r="O46">
+        <v>47184</v>
+      </c>
+      <c r="P46">
+        <v>31346</v>
+      </c>
+      <c r="Q46">
+        <v>875</v>
+      </c>
+      <c r="R46">
+        <v>42825</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>-10557</v>
+      </c>
+      <c r="U46">
+        <v>5076</v>
+      </c>
+      <c r="V46">
+        <v>843</v>
+      </c>
+      <c r="W46">
+        <v>-1618</v>
+      </c>
+      <c r="X46">
+        <v>341</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-5</v>
+      </c>
+      <c r="AA46">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1781</v>
+      </c>
+      <c r="D47">
+        <v>6917</v>
+      </c>
+      <c r="E47">
+        <v>3648</v>
+      </c>
+      <c r="F47">
+        <v>4398</v>
+      </c>
+      <c r="G47">
+        <v>18432</v>
+      </c>
+      <c r="H47">
+        <v>38660</v>
+      </c>
+      <c r="I47">
+        <v>1909</v>
+      </c>
+      <c r="J47">
+        <v>26595</v>
+      </c>
+      <c r="K47">
+        <v>898</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>17243</v>
+      </c>
+      <c r="O47">
+        <v>48937</v>
+      </c>
+      <c r="P47">
+        <v>31747</v>
+      </c>
+      <c r="Q47">
+        <v>1081</v>
+      </c>
+      <c r="R47">
+        <v>42916</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-10277</v>
+      </c>
+      <c r="U47">
+        <v>6197</v>
+      </c>
+      <c r="V47">
+        <v>3228</v>
+      </c>
+      <c r="W47">
+        <v>-1618</v>
+      </c>
+      <c r="X47">
+        <v>-1932</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-14</v>
+      </c>
+      <c r="AA47">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1970</v>
+      </c>
+      <c r="D48">
+        <v>7473</v>
+      </c>
+      <c r="E48">
+        <v>3985</v>
+      </c>
+      <c r="F48">
+        <v>4738</v>
+      </c>
+      <c r="G48">
+        <v>20859</v>
+      </c>
+      <c r="H48">
+        <v>41951</v>
+      </c>
+      <c r="I48">
+        <v>1973</v>
+      </c>
+      <c r="J48">
+        <v>28065</v>
+      </c>
+      <c r="K48">
+        <v>2905</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>18514</v>
+      </c>
+      <c r="O48">
+        <v>51584</v>
+      </c>
+      <c r="P48">
+        <v>33975</v>
+      </c>
+      <c r="Q48">
+        <v>1448</v>
+      </c>
+      <c r="R48">
+        <v>43008</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-9633</v>
+      </c>
+      <c r="U48">
+        <v>7667</v>
+      </c>
+      <c r="V48">
+        <v>1920</v>
+      </c>
+      <c r="W48">
+        <v>-1618</v>
+      </c>
+      <c r="X48">
+        <v>359</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-21</v>
+      </c>
+      <c r="AA48">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>694</v>
+      </c>
+      <c r="D49">
+        <v>8294</v>
+      </c>
+      <c r="E49">
+        <v>3194</v>
+      </c>
+      <c r="F49">
+        <v>5293</v>
+      </c>
+      <c r="G49">
+        <v>21594</v>
+      </c>
+      <c r="H49">
+        <v>42968</v>
+      </c>
+      <c r="I49">
+        <v>2242</v>
+      </c>
+      <c r="J49">
+        <v>31306</v>
+      </c>
+      <c r="K49">
+        <v>499</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>15962</v>
+      </c>
+      <c r="O49">
+        <v>53198</v>
+      </c>
+      <c r="P49">
+        <v>34339</v>
+      </c>
+      <c r="Q49">
+        <v>741</v>
+      </c>
+      <c r="R49">
+        <v>43100</v>
+      </c>
+      <c r="S49">
+        <v>80600</v>
+      </c>
+      <c r="T49">
+        <v>-10230</v>
+      </c>
+      <c r="U49">
+        <v>8447</v>
+      </c>
+      <c r="V49">
+        <v>2921</v>
+      </c>
+      <c r="W49">
+        <v>-1666</v>
+      </c>
+      <c r="X49">
+        <v>-1537</v>
+      </c>
+      <c r="Y49">
+        <v>28</v>
+      </c>
+      <c r="Z49">
+        <v>-71</v>
+      </c>
+      <c r="AA49">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1556</v>
+      </c>
+      <c r="D50">
+        <v>6896</v>
+      </c>
+      <c r="E50">
+        <v>3373</v>
+      </c>
+      <c r="F50">
+        <v>4281</v>
+      </c>
+      <c r="G50">
+        <v>20593</v>
+      </c>
+      <c r="H50">
+        <v>43070</v>
+      </c>
+      <c r="I50">
+        <v>2156</v>
+      </c>
+      <c r="J50">
+        <v>29578</v>
+      </c>
+      <c r="K50">
+        <v>608</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>17688</v>
+      </c>
+      <c r="O50">
+        <v>53552</v>
+      </c>
+      <c r="P50">
+        <v>34848</v>
+      </c>
+      <c r="Q50">
+        <v>-1245</v>
+      </c>
+      <c r="R50">
+        <v>43190</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>-10482</v>
+      </c>
+      <c r="U50">
+        <v>7200</v>
+      </c>
+      <c r="V50">
+        <v>1380</v>
+      </c>
+      <c r="W50">
+        <v>-1659</v>
+      </c>
+      <c r="X50">
+        <v>-1738</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-18</v>
+      </c>
+      <c r="AA50">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>2198</v>
+      </c>
+      <c r="D51">
+        <v>7726</v>
+      </c>
+      <c r="E51">
+        <v>2936</v>
+      </c>
+      <c r="F51">
+        <v>4982</v>
+      </c>
+      <c r="G51">
+        <v>20028</v>
+      </c>
+      <c r="H51">
+        <v>40721</v>
+      </c>
+      <c r="I51">
+        <v>1953</v>
+      </c>
+      <c r="J51">
+        <v>28048</v>
+      </c>
+      <c r="K51">
+        <v>592</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>17441</v>
+      </c>
+      <c r="O51">
+        <v>50889</v>
+      </c>
+      <c r="P51">
+        <v>31665</v>
+      </c>
+      <c r="Q51">
+        <v>-609</v>
+      </c>
+      <c r="R51">
+        <v>43281</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-10168</v>
+      </c>
+      <c r="U51">
+        <v>6587</v>
+      </c>
+      <c r="V51">
+        <v>3993</v>
+      </c>
+      <c r="W51">
+        <v>-1673</v>
+      </c>
+      <c r="X51">
+        <v>-4277</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-12</v>
+      </c>
+      <c r="AA51">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>2247</v>
+      </c>
+      <c r="D52">
+        <v>7504</v>
+      </c>
+      <c r="E52">
+        <v>2936</v>
+      </c>
+      <c r="F52">
+        <v>4886</v>
+      </c>
+      <c r="G52">
+        <v>18538</v>
+      </c>
+      <c r="H52">
+        <v>39380</v>
+      </c>
+      <c r="I52">
+        <v>1662</v>
+      </c>
+      <c r="J52">
+        <v>28179</v>
+      </c>
+      <c r="K52">
+        <v>545</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>15599</v>
+      </c>
+      <c r="O52">
+        <v>49322</v>
+      </c>
+      <c r="P52">
+        <v>31766</v>
+      </c>
+      <c r="Q52">
+        <v>-709</v>
+      </c>
+      <c r="R52">
+        <v>43373</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-9942</v>
+      </c>
+      <c r="U52">
+        <v>5880</v>
+      </c>
+      <c r="V52">
+        <v>1683</v>
+      </c>
+      <c r="W52">
+        <v>-1778</v>
+      </c>
+      <c r="X52">
+        <v>-1889</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-11</v>
+      </c>
+      <c r="AA52">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1910</v>
+      </c>
+      <c r="D53">
+        <v>7499</v>
+      </c>
+      <c r="E53">
+        <v>2950</v>
+      </c>
+      <c r="F53">
+        <v>4718</v>
+      </c>
+      <c r="G53">
+        <v>19442</v>
+      </c>
+      <c r="H53">
+        <v>39801</v>
+      </c>
+      <c r="I53">
+        <v>2068</v>
+      </c>
+      <c r="J53">
+        <v>26942</v>
+      </c>
+      <c r="K53">
+        <v>730</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>17191</v>
+      </c>
+      <c r="O53">
+        <v>50540</v>
+      </c>
+      <c r="P53">
+        <v>31759</v>
+      </c>
+      <c r="Q53">
+        <v>707</v>
+      </c>
+      <c r="R53">
+        <v>43465</v>
+      </c>
+      <c r="S53">
+        <v>77400</v>
+      </c>
+      <c r="T53">
+        <v>-10739</v>
+      </c>
+      <c r="U53">
+        <v>6593</v>
+      </c>
+      <c r="V53">
+        <v>2422</v>
+      </c>
+      <c r="W53">
+        <v>-1775</v>
+      </c>
+      <c r="X53">
+        <v>-1747</v>
+      </c>
+      <c r="Y53">
+        <v>33</v>
+      </c>
+      <c r="Z53">
+        <v>-22</v>
+      </c>
+      <c r="AA53">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1354</v>
+      </c>
+      <c r="D54">
+        <v>6751</v>
+      </c>
+      <c r="E54">
+        <v>2958</v>
+      </c>
+      <c r="F54">
+        <v>4286</v>
+      </c>
+      <c r="G54">
+        <v>15741</v>
+      </c>
+      <c r="H54">
+        <v>38042</v>
+      </c>
+      <c r="I54">
+        <v>1812</v>
+      </c>
+      <c r="J54">
+        <v>23095</v>
+      </c>
+      <c r="K54">
+        <v>1551</v>
+      </c>
+      <c r="L54">
+        <v>-167</v>
+      </c>
+      <c r="M54">
+        <v>-2137</v>
+      </c>
+      <c r="N54">
+        <v>18486</v>
+      </c>
+      <c r="O54">
+        <v>48227</v>
+      </c>
+      <c r="P54">
+        <v>30970</v>
+      </c>
+      <c r="Q54">
+        <v>-3534</v>
+      </c>
+      <c r="R54">
+        <v>43555</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>-10185</v>
+      </c>
+      <c r="U54">
+        <v>3081</v>
+      </c>
+      <c r="V54">
+        <v>1241</v>
+      </c>
+      <c r="W54">
+        <v>-1780</v>
+      </c>
+      <c r="X54">
+        <v>-3151</v>
+      </c>
+      <c r="Y54">
+        <v>562</v>
+      </c>
+      <c r="Z54">
+        <v>-24</v>
+      </c>
+      <c r="AA54">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>2319</v>
+      </c>
+      <c r="D55">
+        <v>7699</v>
+      </c>
+      <c r="E55">
+        <v>3506</v>
+      </c>
+      <c r="F55">
+        <v>5034</v>
+      </c>
+      <c r="G55">
+        <v>17163</v>
+      </c>
+      <c r="H55">
+        <v>39923</v>
+      </c>
+      <c r="I55">
+        <v>1708</v>
+      </c>
+      <c r="J55">
+        <v>24823</v>
+      </c>
+      <c r="K55">
+        <v>269</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>18046</v>
+      </c>
+      <c r="O55">
+        <v>49332</v>
+      </c>
+      <c r="P55">
+        <v>30597</v>
+      </c>
+      <c r="Q55">
+        <v>927</v>
+      </c>
+      <c r="R55">
+        <v>43646</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-9409</v>
+      </c>
+      <c r="U55">
+        <v>4008</v>
+      </c>
+      <c r="V55">
+        <v>3442</v>
+      </c>
+      <c r="W55">
+        <v>-1777</v>
+      </c>
+      <c r="X55">
+        <v>-2404</v>
+      </c>
+      <c r="Y55">
+        <v>559</v>
+      </c>
+      <c r="Z55">
+        <v>-4</v>
+      </c>
+      <c r="AA55">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1896</v>
+      </c>
+      <c r="D56">
+        <v>7642</v>
+      </c>
+      <c r="E56">
+        <v>3073</v>
+      </c>
+      <c r="F56">
+        <v>5037</v>
+      </c>
+      <c r="G56">
+        <v>19575</v>
+      </c>
+      <c r="H56">
+        <v>41420</v>
+      </c>
+      <c r="I56">
+        <v>1704</v>
+      </c>
+      <c r="J56">
+        <v>26388</v>
+      </c>
+      <c r="K56">
+        <v>355</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>18045</v>
+      </c>
+      <c r="O56">
+        <v>50575</v>
+      </c>
+      <c r="P56">
+        <v>32528</v>
+      </c>
+      <c r="Q56">
+        <v>2498</v>
+      </c>
+      <c r="R56">
+        <v>43738</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>-9155</v>
+      </c>
+      <c r="U56">
+        <v>6507</v>
+      </c>
+      <c r="V56">
+        <v>2083</v>
+      </c>
+      <c r="W56">
+        <v>-1779</v>
+      </c>
+      <c r="X56">
+        <v>453</v>
+      </c>
+      <c r="Y56">
+        <v>567</v>
+      </c>
+      <c r="Z56">
+        <v>-3</v>
+      </c>
+      <c r="AA56">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1616</v>
+      </c>
+      <c r="D57">
+        <v>7713</v>
+      </c>
+      <c r="E57">
+        <v>3080</v>
+      </c>
+      <c r="F57">
+        <v>4935</v>
+      </c>
+      <c r="G57">
+        <v>20514</v>
+      </c>
+      <c r="H57">
+        <v>42875</v>
+      </c>
+      <c r="I57">
+        <v>2299</v>
+      </c>
+      <c r="J57">
+        <v>26600</v>
+      </c>
+      <c r="K57">
+        <v>338</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>18833</v>
+      </c>
+      <c r="O57">
+        <v>52474</v>
+      </c>
+      <c r="P57">
+        <v>31808</v>
+      </c>
+      <c r="Q57">
+        <v>354</v>
+      </c>
+      <c r="R57">
+        <v>43830</v>
+      </c>
+      <c r="S57">
+        <v>73500</v>
+      </c>
+      <c r="T57">
+        <v>-9599</v>
+      </c>
+      <c r="U57">
+        <v>6861</v>
+      </c>
+      <c r="V57">
+        <v>3324</v>
+      </c>
+      <c r="W57">
+        <v>-1825</v>
+      </c>
+      <c r="X57">
+        <v>-2959</v>
+      </c>
+      <c r="Y57">
+        <v>625</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1826</v>
+      </c>
+      <c r="D58">
+        <v>7153</v>
+      </c>
+      <c r="E58">
+        <v>2785</v>
+      </c>
+      <c r="F58">
+        <v>4751</v>
+      </c>
+      <c r="G58">
+        <v>16861</v>
+      </c>
+      <c r="H58">
+        <v>37494</v>
+      </c>
+      <c r="I58">
+        <v>2073</v>
+      </c>
+      <c r="J58">
+        <v>24950</v>
+      </c>
+      <c r="K58">
+        <v>1438</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-3641</v>
+      </c>
+      <c r="N58">
+        <v>16584</v>
+      </c>
+      <c r="O58">
+        <v>48557</v>
+      </c>
+      <c r="P58">
+        <v>28370</v>
+      </c>
+      <c r="Q58">
+        <v>-3115</v>
+      </c>
+      <c r="R58">
+        <v>43921</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>-11063</v>
+      </c>
+      <c r="U58">
+        <v>3746</v>
+      </c>
+      <c r="V58">
+        <v>1111</v>
+      </c>
+      <c r="W58">
+        <v>-1828</v>
+      </c>
+      <c r="X58">
+        <v>-4549</v>
+      </c>
+      <c r="Y58">
+        <v>49</v>
+      </c>
+      <c r="Z58">
+        <v>-2</v>
+      </c>
+      <c r="AA58">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1947</v>
+      </c>
+      <c r="D59">
+        <v>6651</v>
+      </c>
+      <c r="E59">
+        <v>3344</v>
+      </c>
+      <c r="F59">
+        <v>4472</v>
+      </c>
+      <c r="G59">
+        <v>17776</v>
+      </c>
+      <c r="H59">
+        <v>39162</v>
+      </c>
+      <c r="I59">
+        <v>1991</v>
+      </c>
+      <c r="J59">
+        <v>26996</v>
+      </c>
+      <c r="K59">
+        <v>281</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>15792</v>
+      </c>
+      <c r="O59">
+        <v>49282</v>
+      </c>
+      <c r="P59">
+        <v>29628</v>
+      </c>
+      <c r="Q59">
+        <v>457</v>
+      </c>
+      <c r="R59">
+        <v>44012</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-10120</v>
+      </c>
+      <c r="U59">
+        <v>4200</v>
+      </c>
+      <c r="V59">
+        <v>1925</v>
+      </c>
+      <c r="W59">
+        <v>-1830</v>
+      </c>
+      <c r="X59">
+        <v>-954</v>
+      </c>
+      <c r="Y59">
+        <v>47</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>2307</v>
+      </c>
+      <c r="D60">
+        <v>7446</v>
+      </c>
+      <c r="E60">
+        <v>3080</v>
+      </c>
+      <c r="F60">
+        <v>5030</v>
+      </c>
+      <c r="G60">
+        <v>17453</v>
+      </c>
+      <c r="H60">
+        <v>39129</v>
+      </c>
+      <c r="I60">
+        <v>2155</v>
+      </c>
+      <c r="J60">
+        <v>27301</v>
+      </c>
+      <c r="K60">
+        <v>152</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>15525</v>
+      </c>
+      <c r="O60">
+        <v>49374</v>
+      </c>
+      <c r="P60">
+        <v>29490</v>
+      </c>
+      <c r="Q60">
+        <v>620</v>
+      </c>
+      <c r="R60">
+        <v>44104</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>-10245</v>
+      </c>
+      <c r="U60">
+        <v>4821</v>
+      </c>
+      <c r="V60">
+        <v>3614</v>
+      </c>
+      <c r="W60">
+        <v>-1827</v>
+      </c>
+      <c r="X60">
+        <v>-2528</v>
+      </c>
+      <c r="Y60">
+        <v>45</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
         <v>1976</v>
       </c>
-      <c r="D42">
+      <c r="D61">
         <v>7444</v>
       </c>
-      <c r="E42">
+      <c r="E61">
         <v>2905</v>
       </c>
-      <c r="F42">
+      <c r="F61">
         <v>4872</v>
       </c>
-      <c r="G42">
+      <c r="G61">
         <v>21492</v>
       </c>
-      <c r="H42">
+      <c r="H61">
         <v>44815</v>
       </c>
-      <c r="I42">
+      <c r="I61">
         <v>2780</v>
       </c>
-      <c r="J42">
+      <c r="J61">
         <v>28131</v>
       </c>
-      <c r="K42">
+      <c r="K61">
         <v>244</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <v>19615</v>
       </c>
-      <c r="O42">
+      <c r="O61">
         <v>55446</v>
       </c>
-      <c r="P42">
+      <c r="P61">
         <v>32243</v>
       </c>
-      <c r="Q42">
+      <c r="Q61">
         <v>2458</v>
       </c>
-      <c r="R42">
+      <c r="R61">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S61">
         <v>71000</v>
       </c>
-      <c r="T42">
+      <c r="T61">
         <v>-10631</v>
       </c>
-      <c r="U42">
+      <c r="U61">
         <v>7280</v>
       </c>
-      <c r="V42">
+      <c r="V61">
         <v>3162</v>
       </c>
-      <c r="W42">
+      <c r="W61">
         <v>-1879</v>
       </c>
-      <c r="X42">
+      <c r="X61">
         <v>-465</v>
       </c>
-      <c r="Y42">
+      <c r="Y61">
         <v>554</v>
       </c>
-      <c r="Z42">
+      <c r="Z61">
         <v>-44</v>
       </c>
-      <c r="AA42">
+      <c r="AA61">
         <v>1976</v>
       </c>
     </row>
